--- a/data/spider.xlsx
+++ b/data/spider.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28817"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Il mio Drive\Clienti\Silvi\Osservatorio sulla trasformazione digitale\survey\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F05724E-D7F1-4279-89CC-B9BE2371CCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -259,8 +268,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,17 +328,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -367,7 +384,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -401,6 +418,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -435,9 +453,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,14 +629,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -657,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -677,7 +698,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -697,7 +718,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -717,7 +738,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -737,7 +758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -757,7 +778,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -777,7 +798,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -797,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -817,7 +838,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -834,10 +855,10 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -857,7 +878,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -877,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -897,7 +918,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -917,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -931,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -951,7 +972,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -971,7 +992,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -991,7 +1012,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1011,7 +1032,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1052,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1072,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1071,7 +1092,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1088,7 +1109,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1102,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1122,7 +1143,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1142,7 +1163,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1162,7 +1183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1173,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1193,7 +1214,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1230,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1250,7 +1271,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1270,7 +1291,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1290,7 +1311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1304,7 +1325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1324,7 +1345,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1344,7 +1365,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1361,7 +1382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1381,7 +1402,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1401,7 +1422,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1412,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1423,7 +1444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1434,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1465,7 +1486,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1476,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1490,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1510,7 +1531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1530,7 +1551,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1550,7 +1571,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1564,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1578,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -1598,7 +1619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -1618,7 +1639,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -1638,7 +1659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -1649,7 +1670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -1669,7 +1690,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -1689,7 +1710,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1709,7 +1730,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -1729,7 +1750,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -1749,7 +1770,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -1769,7 +1790,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -1789,7 +1810,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -1809,7 +1830,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -1829,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -1849,7 +1870,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -1869,7 +1890,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -1889,7 +1910,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -1909,7 +1930,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -1926,10 +1947,10 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <v>1.11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -1949,7 +1970,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -1969,7 +1990,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -1983,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -1998,6 +2019,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>